--- a/USCS_Sample_Prep_Helper_Template.xlsx
+++ b/USCS_Sample_Prep_Helper_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sys_op\methods\Development\AMEX_Template_BD\USCS-Sample-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0F29F-916E-4BCA-A8FF-B2C5B99797C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9118D8E-B7AE-4A21-9B1D-49F8663D703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{FBE6EFD9-31E1-4B03-A058-28FE4160739B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FBE6EFD9-31E1-4B03-A058-28FE4160739B}"/>
   </bookViews>
   <sheets>
     <sheet name="Augment_Specs" sheetId="1" r:id="rId1"/>
@@ -47,26 +47,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="447">
-  <si>
-    <t>Card Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="446">
   <si>
     <t>min_spend</t>
   </si>
   <si>
-    <t>tenure_var_max</t>
-  </si>
-  <si>
-    <t>tenure_var_min</t>
-  </si>
-  <si>
-    <t>SP Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Sample needed </t>
-  </si>
-  <si>
     <t>weighting_segment</t>
   </si>
   <si>
@@ -1388,6 +1373,18 @@
   </si>
   <si>
     <t>CNPR35</t>
+  </si>
+  <si>
+    <t>card_name</t>
+  </si>
+  <si>
+    <t>count_requested</t>
+  </si>
+  <si>
+    <t>tenure_days_min</t>
+  </si>
+  <si>
+    <t>tenure_days_max</t>
   </si>
 </sst>
 </file>
@@ -4974,13 +4971,12 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8307,97 +8303,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0164E-17AF-4C13-81A3-FDE70234F4D1}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>445</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5</v>
+        <v>437</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
+        <v>440</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4" s="3">
-        <v>2</v>
+        <v>439</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
+        <v>438</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>450</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
+        <v>441</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -8411,211 +8406,211 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
+      <c r="B1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8639,18 +8634,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8658,10 +8653,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -8669,10 +8664,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>501</v>
@@ -8680,10 +8675,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>502</v>
@@ -8691,10 +8686,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>503</v>
@@ -8702,10 +8697,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>504</v>
@@ -8713,10 +8708,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>505</v>
@@ -8724,10 +8719,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>506</v>
@@ -8735,10 +8730,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>507</v>
@@ -8746,10 +8741,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>508</v>
@@ -8757,10 +8752,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>509</v>
@@ -8768,10 +8763,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>510</v>
@@ -8779,10 +8774,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>511</v>
@@ -8790,10 +8785,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>512</v>
@@ -8801,10 +8796,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>513</v>
@@ -8812,10 +8807,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>514</v>
@@ -8823,10 +8818,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>515</v>
@@ -8834,10 +8829,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>516</v>
@@ -8845,10 +8840,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>517</v>
@@ -8856,10 +8851,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>518</v>
@@ -8867,10 +8862,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>519</v>
@@ -8878,10 +8873,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23">
         <v>520</v>
@@ -8889,10 +8884,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>521</v>
@@ -8900,10 +8895,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>522</v>
@@ -8911,10 +8906,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>523</v>
@@ -8922,10 +8917,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>524</v>
@@ -8933,10 +8928,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>525</v>
@@ -8944,10 +8939,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>526</v>
@@ -8955,10 +8950,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>527</v>
@@ -8966,10 +8961,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>528</v>
@@ -8977,10 +8972,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>529</v>
@@ -8988,10 +8983,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>530</v>
@@ -8999,10 +8994,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>531</v>
@@ -9010,10 +9005,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>532</v>
@@ -9021,10 +9016,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>533</v>
@@ -9032,10 +9027,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>534</v>
@@ -9043,10 +9038,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>535</v>
@@ -9054,10 +9049,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C39">
         <v>536</v>
@@ -9065,10 +9060,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>537</v>
@@ -9076,10 +9071,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C41">
         <v>538</v>
@@ -9087,10 +9082,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>539</v>
@@ -9098,10 +9093,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>540</v>
@@ -9109,10 +9104,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <v>541</v>
@@ -9120,10 +9115,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C45">
         <v>542</v>
@@ -9131,10 +9126,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>543</v>
@@ -9142,10 +9137,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C47">
         <v>544</v>
@@ -9153,10 +9148,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>545</v>
@@ -9164,10 +9159,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C49">
         <v>546</v>
@@ -9175,10 +9170,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C50">
         <v>547</v>
@@ -9186,10 +9181,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>548</v>
@@ -9197,10 +9192,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C52">
         <v>549</v>
@@ -9208,10 +9203,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>550</v>
@@ -9219,10 +9214,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C54">
         <v>551</v>
@@ -9230,10 +9225,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>552</v>
@@ -9241,10 +9236,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C56">
         <v>553</v>
@@ -9252,10 +9247,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C57">
         <v>554</v>
@@ -9263,10 +9258,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C58">
         <v>555</v>
@@ -9274,10 +9269,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C59">
         <v>556</v>
@@ -9285,10 +9280,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C60">
         <v>557</v>
@@ -9296,10 +9291,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C61">
         <v>558</v>
@@ -9307,10 +9302,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C62">
         <v>559</v>
@@ -9318,10 +9313,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C63">
         <v>560</v>
@@ -9329,10 +9324,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C64">
         <v>561</v>
@@ -9340,10 +9335,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C65">
         <v>563</v>
@@ -9351,10 +9346,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C66">
         <v>564</v>
@@ -9362,10 +9357,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C67">
         <v>565</v>
@@ -9373,10 +9368,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C68">
         <v>566</v>
@@ -9384,10 +9379,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C69">
         <v>567</v>
@@ -9395,10 +9390,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C70">
         <v>569</v>
@@ -9406,10 +9401,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C71">
         <v>570</v>
@@ -9417,10 +9412,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C72">
         <v>571</v>
@@ -9428,10 +9423,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C73">
         <v>573</v>
@@ -9439,10 +9434,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C74">
         <v>574</v>
@@ -9450,10 +9445,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C75">
         <v>575</v>
@@ -9461,10 +9456,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C76">
         <v>576</v>
@@ -9472,10 +9467,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C77">
         <v>577</v>
@@ -9483,10 +9478,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C78">
         <v>581</v>
@@ -9494,10 +9489,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C79">
         <v>582</v>
@@ -9505,10 +9500,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C80">
         <v>583</v>
@@ -9516,10 +9511,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C81">
         <v>584</v>
@@ -9527,10 +9522,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C82">
         <v>588</v>
@@ -9538,10 +9533,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C83">
         <v>592</v>
@@ -9549,10 +9544,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C84">
         <v>596</v>
@@ -9560,10 +9555,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C85">
         <v>597</v>
@@ -9571,10 +9566,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C86">
         <v>598</v>
@@ -9582,10 +9577,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C87">
         <v>600</v>
@@ -9593,10 +9588,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C88">
         <v>602</v>
@@ -9604,10 +9599,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C89">
         <v>603</v>
@@ -9615,10 +9610,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C90">
         <v>604</v>
@@ -9626,10 +9621,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C91">
         <v>605</v>
@@ -9637,10 +9632,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C92">
         <v>606</v>
@@ -9648,10 +9643,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C93">
         <v>609</v>
@@ -9659,10 +9654,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C94">
         <v>610</v>
@@ -9670,10 +9665,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C95">
         <v>611</v>
@@ -9681,10 +9676,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C96">
         <v>612</v>
@@ -9692,10 +9687,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C97">
         <v>613</v>
@@ -9703,10 +9698,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C98">
         <v>616</v>
@@ -9714,10 +9709,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C99">
         <v>617</v>
@@ -9725,10 +9720,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C100">
         <v>618</v>
@@ -9736,10 +9731,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C101">
         <v>619</v>
@@ -9747,10 +9742,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C102">
         <v>622</v>
@@ -9758,10 +9753,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C103">
         <v>623</v>
@@ -9769,10 +9764,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C104">
         <v>624</v>
@@ -9780,10 +9775,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C105">
         <v>625</v>
@@ -9791,10 +9786,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C106">
         <v>626</v>
@@ -9802,10 +9797,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C107">
         <v>627</v>
@@ -9813,10 +9808,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C108">
         <v>628</v>
@@ -9824,10 +9819,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C109">
         <v>630</v>
@@ -9835,10 +9830,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C110">
         <v>631</v>
@@ -9846,10 +9841,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C111">
         <v>632</v>
@@ -9857,10 +9852,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C112">
         <v>633</v>
@@ -9868,10 +9863,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C113">
         <v>634</v>
@@ -9879,10 +9874,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C114">
         <v>635</v>
@@ -9890,10 +9885,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C115">
         <v>636</v>
@@ -9901,10 +9896,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C116">
         <v>637</v>
@@ -9912,10 +9907,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C117">
         <v>638</v>
@@ -9923,10 +9918,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C118">
         <v>639</v>
@@ -9934,10 +9929,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C119">
         <v>640</v>
@@ -9945,10 +9940,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C120">
         <v>641</v>
@@ -9956,10 +9951,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C121">
         <v>642</v>
@@ -9967,10 +9962,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C122">
         <v>643</v>
@@ -9978,10 +9973,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C123">
         <v>644</v>
@@ -9989,10 +9984,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C124">
         <v>647</v>
@@ -10000,10 +9995,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C125">
         <v>648</v>
@@ -10011,10 +10006,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C126">
         <v>649</v>
@@ -10022,10 +10017,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C127">
         <v>650</v>
@@ -10033,10 +10028,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C128">
         <v>651</v>
@@ -10044,10 +10039,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C129">
         <v>652</v>
@@ -10055,10 +10050,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B130" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C130">
         <v>656</v>
@@ -10066,10 +10061,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C131">
         <v>657</v>
@@ -10077,10 +10072,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C132">
         <v>658</v>
@@ -10088,10 +10083,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B133" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C133">
         <v>659</v>
@@ -10099,10 +10094,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C134">
         <v>661</v>
@@ -10110,10 +10105,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C135">
         <v>662</v>
@@ -10121,10 +10116,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C136">
         <v>669</v>
@@ -10132,10 +10127,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C137">
         <v>670</v>
@@ -10143,10 +10138,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C138">
         <v>671</v>
@@ -10154,10 +10149,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C139">
         <v>673</v>
@@ -10165,10 +10160,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B140" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C140">
         <v>675</v>
@@ -10176,10 +10171,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C141">
         <v>676</v>
@@ -10187,10 +10182,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B142" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C142">
         <v>678</v>
@@ -10198,10 +10193,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C143">
         <v>679</v>
@@ -10209,10 +10204,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C144">
         <v>682</v>
@@ -10220,10 +10215,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C145">
         <v>686</v>
@@ -10231,10 +10226,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B146" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C146">
         <v>687</v>
@@ -10242,10 +10237,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C147">
         <v>691</v>
@@ -10253,10 +10248,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C148">
         <v>692</v>
@@ -10264,10 +10259,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B149" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C149">
         <v>693</v>
@@ -10275,10 +10270,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B150" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C150">
         <v>698</v>
@@ -10286,10 +10281,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B151" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C151">
         <v>702</v>
@@ -10297,10 +10292,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C152">
         <v>705</v>
@@ -10308,10 +10303,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C153">
         <v>709</v>
@@ -10319,10 +10314,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C154">
         <v>710</v>
@@ -10330,10 +10325,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B155" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C155">
         <v>711</v>
@@ -10341,10 +10336,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B156" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C156">
         <v>716</v>
@@ -10352,10 +10347,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B157" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C157">
         <v>717</v>
@@ -10363,10 +10358,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B158" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C158">
         <v>718</v>
@@ -10374,10 +10369,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C159">
         <v>722</v>
@@ -10385,10 +10380,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B160" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C160">
         <v>724</v>
@@ -10396,10 +10391,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B161" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C161">
         <v>725</v>
@@ -10407,10 +10402,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C162">
         <v>734</v>
@@ -10418,10 +10413,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C163">
         <v>736</v>
@@ -10429,10 +10424,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B164" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C164">
         <v>737</v>
@@ -10440,10 +10435,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C165">
         <v>740</v>
@@ -10451,10 +10446,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B166" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C166">
         <v>743</v>
@@ -10462,10 +10457,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C167">
         <v>744</v>
@@ -10473,10 +10468,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C168">
         <v>745</v>
@@ -10484,10 +10479,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C169">
         <v>746</v>
@@ -10495,10 +10490,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B170" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C170">
         <v>747</v>
@@ -10506,10 +10501,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B171" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C171">
         <v>749</v>
@@ -10517,10 +10512,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C172">
         <v>751</v>
@@ -10528,10 +10523,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B173" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C173">
         <v>752</v>
@@ -10539,10 +10534,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C174">
         <v>753</v>
@@ -10550,10 +10545,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B175" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C175">
         <v>754</v>
@@ -10561,10 +10556,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C176">
         <v>755</v>
@@ -10572,10 +10567,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C177">
         <v>756</v>
@@ -10583,10 +10578,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B178" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C178">
         <v>757</v>
@@ -10594,10 +10589,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B179" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C179">
         <v>758</v>
@@ -10605,10 +10600,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B180" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C180">
         <v>759</v>
@@ -10616,10 +10611,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B181" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C181">
         <v>760</v>
@@ -10627,10 +10622,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B182" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C182">
         <v>762</v>
@@ -10638,10 +10633,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B183" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C183">
         <v>764</v>
@@ -10649,10 +10644,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B184" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C184">
         <v>765</v>
@@ -10660,10 +10655,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B185" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C185">
         <v>766</v>
@@ -10671,10 +10666,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B186" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C186">
         <v>767</v>
@@ -10682,10 +10677,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B187" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C187">
         <v>770</v>
@@ -10693,10 +10688,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B188" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C188">
         <v>771</v>
@@ -10704,10 +10699,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B189" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C189">
         <v>773</v>
@@ -10715,10 +10710,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B190" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C190">
         <v>789</v>
@@ -10726,10 +10721,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B191" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C191">
         <v>790</v>
@@ -10737,10 +10732,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C192">
         <v>798</v>
@@ -10748,10 +10743,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B193" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C193">
         <v>800</v>
@@ -10759,10 +10754,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B194" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C194">
         <v>801</v>
@@ -10770,10 +10765,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B195" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C195">
         <v>802</v>
@@ -10781,10 +10776,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B196" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C196">
         <v>803</v>
@@ -10792,10 +10787,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C197">
         <v>804</v>
@@ -10803,10 +10798,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B198" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C198">
         <v>807</v>
@@ -10814,10 +10809,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B199" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C199">
         <v>810</v>
@@ -10825,10 +10820,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B200" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C200">
         <v>811</v>
@@ -10836,10 +10831,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B201" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C201">
         <v>813</v>
@@ -10847,10 +10842,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B202" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C202">
         <v>819</v>
@@ -10858,10 +10853,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B203" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C203">
         <v>820</v>
@@ -10869,10 +10864,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B204" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C204">
         <v>821</v>
@@ -10880,10 +10875,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B205" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C205">
         <v>825</v>
@@ -10891,10 +10886,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B206" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C206">
         <v>828</v>
@@ -10902,10 +10897,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B207" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C207">
         <v>839</v>
@@ -10913,10 +10908,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B208" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C208">
         <v>855</v>
@@ -10924,10 +10919,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B209" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C209">
         <v>862</v>
@@ -10935,10 +10930,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B210" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C210">
         <v>866</v>
@@ -10946,10 +10941,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B211" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C211">
         <v>868</v>
@@ -10957,10 +10952,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B212" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C212">
         <v>881</v>
@@ -10968,10 +10963,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B213" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C213">
         <v>980</v>
@@ -10986,8 +10981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4443D0A2-BFC0-43F7-89CA-9B43B6277638}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11003,28 +10998,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>436</v>
-      </c>
-      <c r="F1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/USCS_Sample_Prep_Helper_Template.xlsx
+++ b/USCS_Sample_Prep_Helper_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sys_op\methods\Development\AMEX_Template_BD\USCS-Sample-Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9118D8E-B7AE-4A21-9B1D-49F8663D703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595AD964-6401-418A-A2C9-AD6BEFAC7998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FBE6EFD9-31E1-4B03-A058-28FE4160739B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FBE6EFD9-31E1-4B03-A058-28FE4160739B}"/>
   </bookViews>
   <sheets>
     <sheet name="Augment_Specs" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="446">
   <si>
     <t>min_spend</t>
   </si>
@@ -1400,7 +1400,7 @@
     <numFmt numFmtId="167" formatCode="#.0"/>
     <numFmt numFmtId="168" formatCode="#.0%"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,17 +1423,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1971,49 +1960,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="20" fillId="35" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="18" fillId="35" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2026,32 +2015,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2063,7 +2052,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2074,209 +2063,209 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2286,13 +2275,13 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2310,16 +2299,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2329,2664 +2318,2662 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3000">
@@ -8301,97 +8288,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B0164E-17AF-4C13-81A3-FDE70234F4D1}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>437</v>
       </c>
       <c r="B2">
+        <v>2200</v>
+      </c>
+      <c r="C2">
         <v>120</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>440</v>
       </c>
       <c r="B3">
+        <v>650</v>
+      </c>
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>450</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>439</v>
       </c>
       <c r="B4">
+        <v>450</v>
+      </c>
+      <c r="C4">
         <v>45</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>450</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>438</v>
       </c>
       <c r="B5">
+        <v>550</v>
+      </c>
+      <c r="C5">
         <v>45</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>450</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>441</v>
       </c>
       <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
         <v>45</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>120</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>429</v>
       </c>
     </row>
@@ -8403,214 +8410,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA75C79-ECEB-4D69-BA57-C7EDA51A0594}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
